--- a/medicine/Sexualité et sexologie/Caresse_érotique/Caresse_érotique.xlsx
+++ b/medicine/Sexualité et sexologie/Caresse_érotique/Caresse_érotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caresse_%C3%A9rotique</t>
+          <t>Caresse_érotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une caresse érotique (ou pelotage) est un attouchement de nature sexuelle. Elle désigne une activité ou excitation sexuelle sans pénétration. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caresse_%C3%A9rotique</t>
+          <t>Caresse_érotique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Zones érogènes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caresses érotiques privilégient en général les zones érogènes les plus sensibles : clitoris, vagin, gland du pénis, bouche/lévres, seins/mamelons, etc. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caresse_%C3%A9rotique</t>
+          <t>Caresse_érotique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,19 +556,161 @@
           <t>Types de caresses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs types de caresses. Certaines caresses sont faites dans des buts sexuels ou sensuels.
-La palpation
-La palpation est un attouchement doux avec la main, à plusieurs reprises et en pressant légèrement, porté sur telle ou telle partie d'un corps, pour se rendre compte du degré de leur élasticité, de leur sensibilité, etc.
-Le frottage
-Le frottage, ou humping est un type de caresse sensuel et fait partie du frotteurisme.
-Le terme « frottage » dérive du verbe « frotter ». Deux termes dérivent de ce verbe incluant le frottage, qui désigne un acte sensuel impliquant les caresses[1],[2], et le frotteurisme, une paraphilie impliquant l'obsession du frottage ou l'exécution d'un frottage non-consentant. En usage actuel, le frottage désigne l'acte d'un plaisir sexuel avec un ou plusieurs partenaires, nus ou pas, sans pénétration sexuelle[3]. Il peut inclure l'usage de chaque partie du corps comme les fesses, les seins, les pieds, les mains, les genoux et les organes sexuels[3].
-Il existe plusieurs raisons pour qu'un couple utilise le frottage. Ces raisons impliquent l'excitation sexuelle sans pénétration comme méthode de gratification sexuelle parfois dans le but de préserver la virginité[4],[5] ou comme autre forme de sécurisexe[6].
-La masturbation mutuelle
-La masturbation mutuelle désigne un acte sexuel durant lequel un ou plusieurs individus se stimulent sexuellement, habituellement à l'aide de leurs mains[7]. Elle peut être pratiquée lorsqu'un participant ne se sent physiquement pas apte à engager une relation sexuelle. Elle peut se pratiquer pour tout individu de tout sexe. Lorsque cette pratique est utilisée comme alternative à la pénétration, c'est souvent pour préserver la virginité ou éviter la grossesse[4],[5]. Certains partenaires sexuels peuvent choisir cette technique car elle les satisfait sexuellement[8].
-La bifle ou chaffle
-La bifle (gifler son/sa partenaire avec son pénis) ou la chaffle (gifler son/sa partenaire avec ses lèvres vaginales) sont des caresses érotiques contemporaines démocratisées par l’industrie pornographique[9].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caresse_érotique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caresse_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Types de caresses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La palpation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La palpation est un attouchement doux avec la main, à plusieurs reprises et en pressant légèrement, porté sur telle ou telle partie d'un corps, pour se rendre compte du degré de leur élasticité, de leur sensibilité, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caresse_érotique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caresse_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Types de caresses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le frottage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le frottage, ou humping est un type de caresse sensuel et fait partie du frotteurisme.
+Le terme « frottage » dérive du verbe « frotter ». Deux termes dérivent de ce verbe incluant le frottage, qui désigne un acte sensuel impliquant les caresses et le frotteurisme, une paraphilie impliquant l'obsession du frottage ou l'exécution d'un frottage non-consentant. En usage actuel, le frottage désigne l'acte d'un plaisir sexuel avec un ou plusieurs partenaires, nus ou pas, sans pénétration sexuelle. Il peut inclure l'usage de chaque partie du corps comme les fesses, les seins, les pieds, les mains, les genoux et les organes sexuels.
+Il existe plusieurs raisons pour qu'un couple utilise le frottage. Ces raisons impliquent l'excitation sexuelle sans pénétration comme méthode de gratification sexuelle parfois dans le but de préserver la virginité, ou comme autre forme de sécurisexe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caresse_érotique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caresse_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Types de caresses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La masturbation mutuelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La masturbation mutuelle désigne un acte sexuel durant lequel un ou plusieurs individus se stimulent sexuellement, habituellement à l'aide de leurs mains. Elle peut être pratiquée lorsqu'un participant ne se sent physiquement pas apte à engager une relation sexuelle. Elle peut se pratiquer pour tout individu de tout sexe. Lorsque cette pratique est utilisée comme alternative à la pénétration, c'est souvent pour préserver la virginité ou éviter la grossesse,. Certains partenaires sexuels peuvent choisir cette technique car elle les satisfait sexuellement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caresse_érotique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caresse_%C3%A9rotique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Types de caresses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La bifle ou chaffle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bifle (gifler son/sa partenaire avec son pénis) ou la chaffle (gifler son/sa partenaire avec ses lèvres vaginales) sont des caresses érotiques contemporaines démocratisées par l’industrie pornographique.
 </t>
         </is>
       </c>
